--- a/biology/Botanique/Gaeumannomyces/Gaeumannomyces.xlsx
+++ b/biology/Botanique/Gaeumannomyces/Gaeumannomyces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaeumannomyces est un genre de champignons ascomycètes de la famille des Magnaporthaceae.
-Plusieurs espèces de ce genre sont des champignons phytopathogènes, notamment Gaeumannomyces graminis dont plusieurs variétés sont responsables de la maladie du piétin-échaudage chez le blé, l'avoine et le maïs[1].
+Plusieurs espèces de ce genre sont des champignons phytopathogènes, notamment Gaeumannomyces graminis dont plusieurs variétés sont responsables de la maladie du piétin-échaudage chez le blé, l'avoine et le maïs.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (26 juin 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (26 juin 2015) :
 Gaeumannomyces amomi Bussaban, Lumyong, P. Lumyong, McKenzie &amp; K.D. Hyde 2001
 Gaeumannomyces caricis J. Walker 1980
 Gaeumannomyces cylindrosporus D. Hornby, Slope, Gutter. &amp; Sivan. 1977
@@ -522,7 +536,7 @@
 Gaeumannomyces licualae J. Fröhl. &amp; K.D. Hyde 2000
 Gaeumannomyces medullaris Kohlm., Volkm.-Kohlm. &amp; O.E. Erikss. 1995
 Gaeumannomyces wongoonoo P. Wong 2002
-Selon Index Fungorum                                      (26 juin 2015)[3] :
+Selon Index Fungorum                                      (26 juin 2015) :
 Gaeumannomyces amomi Bussaban, Lumyong, P. Lumyong, McKenzie &amp; K.D. Hyde 2001
 Gaeumannomyces caricis J. Walker 1980
 Gaeumannomyces graminis (Sacc.) Arx &amp; D.L. Olivier 1952
@@ -555,9 +569,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (26 juin 2015)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (26 juin 2015) :
 Gaeumannomyces amomi
 Gaeumannomyces caricis
 Gaeumannomyces graminis
